--- a/8/5/2/2/1/Trimestral 2008 a 2021 - Trimestral.xlsx
+++ b/8/5/2/2/1/Trimestral 2008 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Serie</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -566,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2594,34 +2597,72 @@
         <v>87</v>
       </c>
       <c r="C54">
-        <v>89.2</v>
+        <v>89.3</v>
       </c>
       <c r="D54">
-        <v>86.09999999999999</v>
+        <v>86</v>
       </c>
       <c r="E54">
-        <v>80.59999999999999</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="F54">
-        <v>57.6</v>
+        <v>58.9</v>
       </c>
       <c r="G54">
-        <v>53</v>
+        <v>55.4</v>
       </c>
       <c r="H54">
-        <v>53.4</v>
+        <v>53.7</v>
       </c>
       <c r="I54">
-        <v>70.3</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="J54">
-        <v>93.90000000000001</v>
+        <v>94</v>
       </c>
       <c r="K54">
         <v>94.2</v>
       </c>
       <c r="L54">
-        <v>84.40000000000001</v>
+        <v>84.59999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55">
+        <v>89.2</v>
+      </c>
+      <c r="C55">
+        <v>90.2</v>
+      </c>
+      <c r="D55">
+        <v>89.3</v>
+      </c>
+      <c r="E55">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="F55">
+        <v>63.9</v>
+      </c>
+      <c r="G55">
+        <v>59.2</v>
+      </c>
+      <c r="H55">
+        <v>62</v>
+      </c>
+      <c r="I55">
+        <v>77.3</v>
+      </c>
+      <c r="J55">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="K55">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="L55">
+        <v>87.2</v>
       </c>
     </row>
   </sheetData>
